--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value389.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value389.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.293354714086031</v>
+        <v>2.211098670959473</v>
       </c>
       <c r="B1">
-        <v>1.654122636395941</v>
+        <v>3.1682288646698</v>
       </c>
       <c r="C1">
-        <v>1.72803768290253</v>
+        <v>2.663084030151367</v>
       </c>
       <c r="D1">
-        <v>2.084871728010592</v>
+        <v>2.222048044204712</v>
       </c>
       <c r="E1">
-        <v>2.529618095204014</v>
+        <v>1.496410250663757</v>
       </c>
     </row>
   </sheetData>
